--- a/data/trans_orig/P19E-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>204856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>183784</v>
+        <v>184307</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225825</v>
+        <v>225893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.48451344105258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4346761755184657</v>
+        <v>0.435913152279944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5341094005166815</v>
+        <v>0.5342705765594393</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>199</v>
@@ -763,19 +763,19 @@
         <v>208837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189045</v>
+        <v>189882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>226803</v>
+        <v>227055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6068404176901112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5493300855144652</v>
+        <v>0.5517618339071163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6590473180519714</v>
+        <v>0.6597798094777526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>390</v>
@@ -784,19 +784,19 @@
         <v>413693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>383731</v>
+        <v>382558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>443028</v>
+        <v>441223</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5394031318605463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5003359493575263</v>
+        <v>0.4988074486247286</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5776520524956511</v>
+        <v>0.5752980039828745</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>112490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95065</v>
+        <v>94986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>131228</v>
+        <v>133304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2660547721866943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2248428128862432</v>
+        <v>0.2246567172276517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3103727736900871</v>
+        <v>0.3152843957959232</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -834,19 +834,19 @@
         <v>88229</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72297</v>
+        <v>72434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106445</v>
+        <v>105578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2563774634271385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2100812806286919</v>
+        <v>0.2104790573297014</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3093096403788722</v>
+        <v>0.3067888139716812</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>190</v>
@@ -855,19 +855,19 @@
         <v>200719</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>178626</v>
+        <v>176050</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>226595</v>
+        <v>226051</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.261712439037734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2329058833941656</v>
+        <v>0.229546413762165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.295451276632097</v>
+        <v>0.2947418468484973</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>87319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71651</v>
+        <v>71941</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106815</v>
+        <v>106501</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2065222124360439</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1694653992737546</v>
+        <v>0.1701508046971208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2526341127840229</v>
+        <v>0.2518898769335587</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -905,19 +905,19 @@
         <v>42974</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32194</v>
+        <v>32407</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56804</v>
+        <v>57042</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1248736600505391</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.093550703287716</v>
+        <v>0.0941677904769847</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1650627158908445</v>
+        <v>0.1657526184550539</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>120</v>
@@ -926,19 +926,19 @@
         <v>130293</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>109938</v>
+        <v>110236</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>151638</v>
+        <v>152085</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1698854548004973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1433447951402986</v>
+        <v>0.1437335434124984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1977172434199634</v>
+        <v>0.1982998053655274</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>11015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5458</v>
+        <v>5301</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20267</v>
+        <v>21775</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02605142263797394</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01290892735157272</v>
+        <v>0.0125373252933866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0479333672993397</v>
+        <v>0.05150213116509057</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>11015</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5620</v>
+        <v>5329</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21960</v>
+        <v>22087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01436181358352013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007328196355713111</v>
+        <v>0.006947814270108275</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02863263071549147</v>
+        <v>0.02879869186923501</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>7128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2803</v>
+        <v>2714</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15973</v>
+        <v>15397</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0168581516867079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006629560858588983</v>
+        <v>0.006419977298303733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03777889616884451</v>
+        <v>0.03641713874455926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1039,19 +1039,19 @@
         <v>4098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>987</v>
+        <v>1035</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9954</v>
+        <v>10329</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01190845883221126</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002869093155544202</v>
+        <v>0.003007754528522983</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0289232474241082</v>
+        <v>0.03001440027645507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1060,19 +1060,19 @@
         <v>11226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5482</v>
+        <v>5937</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19976</v>
+        <v>21005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01463716071770226</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007147274380136581</v>
+        <v>0.007741693792352231</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02604555876934795</v>
+        <v>0.02738813106393603</v>
       </c>
     </row>
     <row r="9">
@@ -1164,19 +1164,19 @@
         <v>163282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>144717</v>
+        <v>142859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183752</v>
+        <v>182289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4459867539329569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3952766781492837</v>
+        <v>0.3902028143743677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5018975784138192</v>
+        <v>0.4979008900317097</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -1185,19 +1185,19 @@
         <v>183663</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162957</v>
+        <v>163373</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202595</v>
+        <v>202446</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4987479327982098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4425193059274056</v>
+        <v>0.4436471556423309</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5501579934929774</v>
+        <v>0.54975317955181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>325</v>
@@ -1206,19 +1206,19 @@
         <v>346946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>319185</v>
+        <v>316581</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>375484</v>
+        <v>372967</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4724439999225098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4346420341306002</v>
+        <v>0.4310948457663303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5113045259805528</v>
+        <v>0.5078777829277017</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>114609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97411</v>
+        <v>98167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>133999</v>
+        <v>134464</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3130408552501436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2660661528858496</v>
+        <v>0.2681319602220924</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.366001438478414</v>
+        <v>0.3672734994476483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>118</v>
@@ -1256,19 +1256,19 @@
         <v>124846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107301</v>
+        <v>107359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144336</v>
+        <v>142883</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3390258776277534</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2913820365395194</v>
+        <v>0.2915381255908419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3919531311512413</v>
+        <v>0.3880055506821054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>226</v>
@@ -1277,19 +1277,19 @@
         <v>239455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>214593</v>
+        <v>214405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>264496</v>
+        <v>266123</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3260711199992359</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2922167696257894</v>
+        <v>0.2919607446891579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3601707297029643</v>
+        <v>0.3623857478871498</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>67306</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52243</v>
+        <v>54123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84177</v>
+        <v>84678</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.183837587842637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1426959910388302</v>
+        <v>0.1478313336023178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2299208963985926</v>
+        <v>0.2312870703657577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -1327,19 +1327,19 @@
         <v>56643</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43753</v>
+        <v>44519</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>73264</v>
+        <v>72375</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1538176653330099</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1188131020069678</v>
+        <v>0.1208945356917925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1989514060029994</v>
+        <v>0.1965385041266085</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>118</v>
@@ -1348,19 +1348,19 @@
         <v>123949</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104433</v>
+        <v>105368</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>146953</v>
+        <v>147344</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1687840107333585</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1422090836708415</v>
+        <v>0.1434816196730706</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2001098014500712</v>
+        <v>0.2006420326622493</v>
       </c>
     </row>
     <row r="13">
@@ -1377,19 +1377,19 @@
         <v>5997</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2071</v>
+        <v>2112</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12100</v>
+        <v>12583</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01638114657066628</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005655370868924895</v>
+        <v>0.005769119953077597</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03304924383977941</v>
+        <v>0.03436989680232836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10047</v>
+        <v>10494</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008408524241026815</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02728317801311175</v>
+        <v>0.02849629055555561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1419,19 +1419,19 @@
         <v>9094</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4286</v>
+        <v>4031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17008</v>
+        <v>16814</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01238325200701791</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005836478624681425</v>
+        <v>0.005489736353011076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02315987033389044</v>
+        <v>0.02289564596760168</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>14921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8342</v>
+        <v>8751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24077</v>
+        <v>25498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04075365640359615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02278425873854974</v>
+        <v>0.02390270401560324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06576245370913941</v>
+        <v>0.06964546247672312</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>14921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8313</v>
+        <v>8118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24907</v>
+        <v>23963</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02031761733787781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01132058551286523</v>
+        <v>0.01105436619664605</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03391588832183225</v>
+        <v>0.0326312741844008</v>
       </c>
     </row>
     <row r="15">
@@ -1586,19 +1586,19 @@
         <v>173400</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>153603</v>
+        <v>151103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196439</v>
+        <v>195337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.340300269327856</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3014489622913862</v>
+        <v>0.2965433241504036</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3855150260856788</v>
+        <v>0.3833531964668105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1607,19 +1607,19 @@
         <v>81353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67677</v>
+        <v>67904</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93232</v>
+        <v>94659</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4990027844909506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4151160443000123</v>
+        <v>0.4165097491008761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5718690457833179</v>
+        <v>0.5806220157104603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -1628,19 +1628,19 @@
         <v>254753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>227847</v>
+        <v>229358</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279315</v>
+        <v>280579</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3787692258720031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3387660416620175</v>
+        <v>0.3410116381032862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.415288349952072</v>
+        <v>0.4171677961217557</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>157482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137761</v>
+        <v>137537</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179368</v>
+        <v>180136</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3090610897026885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2703593086029145</v>
+        <v>0.2699185008610571</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3520133729000423</v>
+        <v>0.3535207103614113</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1678,19 +1678,19 @@
         <v>49814</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38034</v>
+        <v>38462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61815</v>
+        <v>62862</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.305546587728875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2332953013062789</v>
+        <v>0.2359197473881455</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3791580833982476</v>
+        <v>0.3855829391351384</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -1699,19 +1699,19 @@
         <v>207295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>183333</v>
+        <v>182522</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232954</v>
+        <v>231286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3082091862305474</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2725822329689684</v>
+        <v>0.271375737852481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3463580798658629</v>
+        <v>0.3438790163215693</v>
       </c>
     </row>
     <row r="18">
@@ -1728,19 +1728,19 @@
         <v>131241</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112364</v>
+        <v>112606</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>150071</v>
+        <v>150371</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2575626491732005</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2205157990260352</v>
+        <v>0.2209915518002826</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2945167941327012</v>
+        <v>0.2951052096240004</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -1749,19 +1749,19 @@
         <v>24753</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16872</v>
+        <v>16353</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35114</v>
+        <v>35248</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.151827209889528</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1034873345239824</v>
+        <v>0.1003074759629242</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2153809707069366</v>
+        <v>0.2162025966989664</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>153</v>
@@ -1770,19 +1770,19 @@
         <v>155993</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136553</v>
+        <v>135481</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>180328</v>
+        <v>179891</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2319327338892506</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2030280819979292</v>
+        <v>0.2014350505039932</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2681144676039813</v>
+        <v>0.2674644085927474</v>
       </c>
     </row>
     <row r="19">
@@ -1799,19 +1799,19 @@
         <v>8959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4071</v>
+        <v>4355</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17042</v>
+        <v>16796</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01758264880002928</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007988725914172514</v>
+        <v>0.008546434140684503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03344604197140177</v>
+        <v>0.03296270736605196</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1820,19 +1820,19 @@
         <v>3841</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10101</v>
+        <v>11446</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02356189013473592</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007550171249204268</v>
+        <v>0.007518485178616225</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06195557182723135</v>
+        <v>0.07020686001110538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1841,19 +1841,19 @@
         <v>12801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7018</v>
+        <v>6712</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21986</v>
+        <v>22321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01903199681342035</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01043416612289145</v>
+        <v>0.009979989927174004</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03268910796061666</v>
+        <v>0.03318681315719833</v>
       </c>
     </row>
     <row r="20">
@@ -1870,19 +1870,19 @@
         <v>38468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27764</v>
+        <v>27471</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52132</v>
+        <v>52926</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07549334299622575</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0544880283611955</v>
+        <v>0.05391231278845769</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1023101289190701</v>
+        <v>0.1038689579049106</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11046</v>
+        <v>10521</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02006152775591044</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06775185143040797</v>
+        <v>0.06453574760381714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1912,19 +1912,19 @@
         <v>41738</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29866</v>
+        <v>29537</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57107</v>
+        <v>54922</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06205685719477857</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04440523919654477</v>
+        <v>0.04391536078916838</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08490685138480285</v>
+        <v>0.08165797179702165</v>
       </c>
     </row>
     <row r="21">
@@ -2016,19 +2016,19 @@
         <v>342879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>313714</v>
+        <v>309583</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>373761</v>
+        <v>372303</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3084105055509134</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.282177986437918</v>
+        <v>0.2784618512337114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3361881594464479</v>
+        <v>0.3348764399144708</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>342</v>
@@ -2037,19 +2037,19 @@
         <v>349697</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>321834</v>
+        <v>321376</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>378514</v>
+        <v>378091</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4335351973700582</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3989919233629763</v>
+        <v>0.3984245659363584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4692609661363661</v>
+        <v>0.4687355467276521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>673</v>
@@ -2058,19 +2058,19 @@
         <v>692576</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>651926</v>
+        <v>649994</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>738740</v>
+        <v>736732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3610214903295395</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.339831534034377</v>
+        <v>0.3388247878809729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3850852757773174</v>
+        <v>0.3840387879020503</v>
       </c>
     </row>
     <row r="23">
@@ -2087,19 +2087,19 @@
         <v>329966</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>300926</v>
+        <v>299363</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>360286</v>
+        <v>362520</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2967962425709406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2706754271010857</v>
+        <v>0.269269579517831</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3240674343370706</v>
+        <v>0.3260774424628233</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>286</v>
@@ -2108,19 +2108,19 @@
         <v>298583</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>270573</v>
+        <v>266041</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>326986</v>
+        <v>323258</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3701670598790505</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3354417648015409</v>
+        <v>0.3298226164391887</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4053792714981972</v>
+        <v>0.4007567979341358</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>603</v>
@@ -2129,19 +2129,19 @@
         <v>628550</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>585732</v>
+        <v>589117</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>668844</v>
+        <v>673906</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3276463561374278</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3053263101641406</v>
+        <v>0.3070909176959917</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3486506172693978</v>
+        <v>0.3512893611549416</v>
       </c>
     </row>
     <row r="24">
@@ -2158,19 +2158,19 @@
         <v>298702</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>267761</v>
+        <v>271315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>330581</v>
+        <v>328467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2686745325080065</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2408437207155141</v>
+        <v>0.2440410010324661</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2973486416977811</v>
+        <v>0.2954472492067364</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>131</v>
@@ -2179,19 +2179,19 @@
         <v>134135</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>115122</v>
+        <v>113203</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>156463</v>
+        <v>155304</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1662925489545017</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1427224026122632</v>
+        <v>0.1403432419207863</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1939738812821528</v>
+        <v>0.1925378321939693</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>415</v>
@@ -2200,19 +2200,19 @@
         <v>432836</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>395394</v>
+        <v>398031</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>470337</v>
+        <v>470561</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2256261389413353</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.206108422556488</v>
+        <v>0.207482851552399</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2451742964526517</v>
+        <v>0.2452910372158056</v>
       </c>
     </row>
     <row r="25">
@@ -2229,19 +2229,19 @@
         <v>37498</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26926</v>
+        <v>26897</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52448</v>
+        <v>52073</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03372852836248718</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0242191194245127</v>
+        <v>0.02419313048257576</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04717537521777264</v>
+        <v>0.04683789303436903</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2250,19 +2250,19 @@
         <v>9724</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4204</v>
+        <v>4531</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18299</v>
+        <v>19045</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01205556427046757</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005211846498048939</v>
+        <v>0.005616864660935575</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02268594868997144</v>
+        <v>0.02361042639199188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -2271,19 +2271,19 @@
         <v>47222</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34716</v>
+        <v>34127</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63703</v>
+        <v>61269</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02461573082128683</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01809640877056104</v>
+        <v>0.01778937976942606</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03320690518138188</v>
+        <v>0.03193812950111882</v>
       </c>
     </row>
     <row r="26">
@@ -2300,19 +2300,19 @@
         <v>102716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85192</v>
+        <v>84160</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124925</v>
+        <v>122016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09239019100765235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07662841442581575</v>
+        <v>0.07569967072561662</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1123666546271828</v>
+        <v>0.1097505318362602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2321,19 +2321,19 @@
         <v>14478</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8357</v>
+        <v>8033</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24535</v>
+        <v>24578</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01794962952592208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01036048405602007</v>
+        <v>0.009958470079633325</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03041704219159816</v>
+        <v>0.03046998078812432</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -2342,19 +2342,19 @@
         <v>117194</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>95861</v>
+        <v>97682</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>137968</v>
+        <v>138886</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06109028377041061</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04996989930569466</v>
+        <v>0.05091915677138452</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07191908271217051</v>
+        <v>0.07239734409374911</v>
       </c>
     </row>
     <row r="27">
@@ -2446,19 +2446,19 @@
         <v>154237</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>133317</v>
+        <v>131102</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>177362</v>
+        <v>175583</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.257841870779318</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2228700393275961</v>
+        <v>0.2191661930274622</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2965004799392921</v>
+        <v>0.2935273316972795</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>245</v>
@@ -2467,19 +2467,19 @@
         <v>259814</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>234961</v>
+        <v>233710</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>286093</v>
+        <v>286707</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3590672834908293</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3247203276570361</v>
+        <v>0.3229904200483117</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3953842847438243</v>
+        <v>0.3962329393372052</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>392</v>
@@ -2488,19 +2488,19 @@
         <v>414051</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>382114</v>
+        <v>378116</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>447074</v>
+        <v>447442</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3132562331889763</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2890938677065199</v>
+        <v>0.2860692744491742</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3382403644663819</v>
+        <v>0.3385182624288791</v>
       </c>
     </row>
     <row r="29">
@@ -2517,19 +2517,19 @@
         <v>181013</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>158646</v>
+        <v>158994</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>202335</v>
+        <v>204766</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3026038898187347</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.265212557478152</v>
+        <v>0.265795257578736</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3382483159650507</v>
+        <v>0.3423129031338911</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>234</v>
@@ -2538,19 +2538,19 @@
         <v>245700</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>222772</v>
+        <v>218739</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>272000</v>
+        <v>270707</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3395609807220215</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3078744496334945</v>
+        <v>0.3023006590378613</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3759081796847768</v>
+        <v>0.3741207893605342</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>409</v>
@@ -2559,19 +2559,19 @@
         <v>426713</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>392698</v>
+        <v>394919</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>462831</v>
+        <v>463158</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3228355053198541</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.297101421579019</v>
+        <v>0.2987817117186004</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3501614072141695</v>
+        <v>0.3504084918024498</v>
       </c>
     </row>
     <row r="30">
@@ -2588,19 +2588,19 @@
         <v>157948</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>138699</v>
+        <v>136795</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182136</v>
+        <v>180572</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2640450117874886</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2318667573009195</v>
+        <v>0.2286838041198584</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3044809218782618</v>
+        <v>0.3018663979979631</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>160</v>
@@ -2609,19 +2609,19 @@
         <v>166499</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>142964</v>
+        <v>144195</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>189173</v>
+        <v>188800</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2301039039332567</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.197578081226639</v>
+        <v>0.1992796726314206</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2614405161948642</v>
+        <v>0.2609241435514484</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>311</v>
@@ -2630,19 +2630,19 @@
         <v>324446</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>290387</v>
+        <v>294707</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>355458</v>
+        <v>355822</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2454644518190152</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2196965208989885</v>
+        <v>0.2229644087440889</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2689265326229113</v>
+        <v>0.2692024945995262</v>
       </c>
     </row>
     <row r="31">
@@ -2659,19 +2659,19 @@
         <v>29848</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20028</v>
+        <v>20579</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41987</v>
+        <v>42679</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0498982113886199</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03348116570182873</v>
+        <v>0.0344031466312895</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07019133471867686</v>
+        <v>0.07134800229121811</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2680,19 +2680,19 @@
         <v>13141</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>7059</v>
+        <v>7198</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21638</v>
+        <v>22846</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01816129857507284</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009755478001081962</v>
+        <v>0.009948410095275268</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02990398893496047</v>
+        <v>0.0315734490073308</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -2701,19 +2701,19 @@
         <v>42989</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32099</v>
+        <v>30963</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>58144</v>
+        <v>57500</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03252430555505418</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02428473033443662</v>
+        <v>0.02342583885492551</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04398941816102787</v>
+        <v>0.04350217960544776</v>
       </c>
     </row>
     <row r="32">
@@ -2730,19 +2730,19 @@
         <v>75139</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59034</v>
+        <v>58885</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>92820</v>
+        <v>92669</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1256110162258388</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09868924582450191</v>
+        <v>0.09844013373008577</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.15516914465583</v>
+        <v>0.1549176532988579</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -2751,19 +2751,19 @@
         <v>38427</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26452</v>
+        <v>28137</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>51105</v>
+        <v>53509</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05310653327881957</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0365563804477408</v>
+        <v>0.03888539870059295</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07062784901368989</v>
+        <v>0.07395073349870346</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>107</v>
@@ -2772,19 +2772,19 @@
         <v>113565</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>93553</v>
+        <v>96732</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>134522</v>
+        <v>136481</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08591950411710021</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07077857041193036</v>
+        <v>0.07318384063461766</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1017744332760835</v>
+        <v>0.103256258901897</v>
       </c>
     </row>
     <row r="33">
@@ -2876,19 +2876,19 @@
         <v>115516</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>98373</v>
+        <v>98738</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>132399</v>
+        <v>133888</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4112007564084694</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3501754727306298</v>
+        <v>0.3514750042137312</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4712983077492647</v>
+        <v>0.4765969604152823</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>379</v>
@@ -2897,19 +2897,19 @@
         <v>408486</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>375373</v>
+        <v>373751</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>442441</v>
+        <v>440988</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3930429043967576</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3611813643833275</v>
+        <v>0.3596213442701415</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4257140043175661</v>
+        <v>0.4243158814140792</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>488</v>
@@ -2918,19 +2918,19 @@
         <v>524002</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>489542</v>
+        <v>486625</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>559794</v>
+        <v>559728</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3969066477817785</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3708048350280733</v>
+        <v>0.3685955932194503</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4240178163576101</v>
+        <v>0.4239679064924637</v>
       </c>
     </row>
     <row r="35">
@@ -2947,19 +2947,19 @@
         <v>94982</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>80497</v>
+        <v>78242</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>112027</v>
+        <v>111822</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3381074230625983</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2865450959383158</v>
+        <v>0.2785150560262226</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3987817505820555</v>
+        <v>0.398049253864997</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>299</v>
@@ -2968,19 +2968,19 @@
         <v>320326</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>289783</v>
+        <v>288966</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>349484</v>
+        <v>351147</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3082160019789604</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2788276459632623</v>
+        <v>0.2780412610104573</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.336271792128959</v>
+        <v>0.3378718817517103</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>390</v>
@@ -2989,19 +2989,19 @@
         <v>415308</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>381693</v>
+        <v>380089</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>450569</v>
+        <v>448888</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3145764889135542</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2891145118164166</v>
+        <v>0.2878993485540622</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3412849222967926</v>
+        <v>0.34001144704622</v>
       </c>
     </row>
     <row r="36">
@@ -3018,19 +3018,19 @@
         <v>61951</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49584</v>
+        <v>48836</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>77296</v>
+        <v>77892</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2205268625539102</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1765025948955367</v>
+        <v>0.1738407757305455</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2751503665803871</v>
+        <v>0.27727022741746</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>194</v>
@@ -3039,19 +3039,19 @@
         <v>214156</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>189494</v>
+        <v>187331</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>244165</v>
+        <v>241636</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2060598860834248</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1823300278422891</v>
+        <v>0.1802487467638383</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2349337974037299</v>
+        <v>0.2325012582071834</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>252</v>
@@ -3060,19 +3060,19 @@
         <v>276107</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>247163</v>
+        <v>247708</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>304345</v>
+        <v>307871</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2091382614663191</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.187214170093241</v>
+        <v>0.1876271124366447</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2305269666322524</v>
+        <v>0.2331977676281541</v>
       </c>
     </row>
     <row r="37">
@@ -3089,19 +3089,19 @@
         <v>5145</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10692</v>
+        <v>11177</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01831541809729375</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007070059435069097</v>
+        <v>0.007113641320195663</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03805966082442459</v>
+        <v>0.03978575727714381</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>28</v>
@@ -3110,19 +3110,19 @@
         <v>33004</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22062</v>
+        <v>22564</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>47461</v>
+        <v>47316</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03175651996154577</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02122784176823295</v>
+        <v>0.02171103128222397</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04566689799591619</v>
+        <v>0.0455269903563737</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -3131,19 +3131,19 @@
         <v>38149</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>26318</v>
+        <v>27893</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>52613</v>
+        <v>54971</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02889643671040467</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01993472683454056</v>
+        <v>0.02112777177250625</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03985207127227438</v>
+        <v>0.04163775029206079</v>
       </c>
     </row>
     <row r="38">
@@ -3160,19 +3160,19 @@
         <v>3329</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8602</v>
+        <v>9627</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01184953987772835</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003349701293796034</v>
+        <v>0.003374725138885525</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03061986119629509</v>
+        <v>0.03426925986603734</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>56</v>
@@ -3181,19 +3181,19 @@
         <v>63318</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>49182</v>
+        <v>48498</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>82099</v>
+        <v>80369</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.06092468757931148</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04732218068423582</v>
+        <v>0.04666412498431231</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.0789954736679742</v>
+        <v>0.07733053881098657</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>59</v>
@@ -3202,19 +3202,19 @@
         <v>66647</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>50063</v>
+        <v>51514</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>84552</v>
+        <v>85029</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05048216512794364</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03792006496305979</v>
+        <v>0.0390196570536983</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06404444656645231</v>
+        <v>0.06440530863803513</v>
       </c>
     </row>
     <row r="39">
@@ -3306,19 +3306,19 @@
         <v>1154170</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1104882</v>
+        <v>1095484</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1212288</v>
+        <v>1205292</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3508818112888288</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3358978475386816</v>
+        <v>0.333040726947745</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3685506419372912</v>
+        <v>0.3664236135139636</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1414</v>
@@ -3327,19 +3327,19 @@
         <v>1491851</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1433280</v>
+        <v>1431713</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1550009</v>
+        <v>1556019</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.4330596915583426</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4160574753148183</v>
+        <v>0.4156027280010599</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4499421476535412</v>
+        <v>0.4516867217573825</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2506</v>
@@ -3348,19 +3348,19 @@
         <v>2646020</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2560573</v>
+        <v>2567400</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2725199</v>
+        <v>2722532</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3929199467556385</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.380231467002184</v>
+        <v>0.38124524086566</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.404677501386055</v>
+        <v>0.4042815056030406</v>
       </c>
     </row>
     <row r="41">
@@ -3377,19 +3377,19 @@
         <v>990542</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>942314</v>
+        <v>940791</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1046712</v>
+        <v>1045864</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.301137097735483</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2864751995772161</v>
+        <v>0.286012109928535</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3182134932872986</v>
+        <v>0.3179555987425403</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1068</v>
@@ -3398,19 +3398,19 @@
         <v>1127498</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1069595</v>
+        <v>1073634</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1183100</v>
+        <v>1182944</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3272941123125153</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3104857513647284</v>
+        <v>0.311658250975929</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.343434362424328</v>
+        <v>0.3433892807136249</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2017</v>
@@ -3419,19 +3419,19 @@
         <v>2118040</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2045761</v>
+        <v>2044338</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2203557</v>
+        <v>2198861</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3145177315336576</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3037846915053755</v>
+        <v>0.3035733280548312</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3272164821883226</v>
+        <v>0.3265191002030117</v>
       </c>
     </row>
     <row r="42">
@@ -3448,19 +3448,19 @@
         <v>804466</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>755479</v>
+        <v>756457</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>855137</v>
+        <v>854440</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2445676572880819</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.229674842635448</v>
+        <v>0.2299723463650963</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2599722490227145</v>
+        <v>0.2597602881476891</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>604</v>
@@ -3469,19 +3469,19 @@
         <v>639159</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>591623</v>
+        <v>592002</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>688827</v>
+        <v>683476</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1855373347540767</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1717385084821157</v>
+        <v>0.1718483157771536</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1999550752256926</v>
+        <v>0.1984018321719402</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1369</v>
@@ -3490,19 +3490,19 @@
         <v>1443625</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1374130</v>
+        <v>1377943</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1512057</v>
+        <v>1508978</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2143706664774712</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2040509493556421</v>
+        <v>0.2046172140665481</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2245324097141837</v>
+        <v>0.2240751777935829</v>
       </c>
     </row>
     <row r="43">
@@ -3519,19 +3519,19 @@
         <v>98463</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>80323</v>
+        <v>80396</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>118842</v>
+        <v>120793</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02993395542381306</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02441915681919423</v>
+        <v>0.02444145031677514</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.0361293104966177</v>
+        <v>0.03672259378952617</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>53</v>
@@ -3540,19 +3540,19 @@
         <v>62807</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>48593</v>
+        <v>47300</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>83234</v>
+        <v>82535</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01823195554126541</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01410561166074873</v>
+        <v>0.01373049179462808</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02416133209580315</v>
+        <v>0.02395846162986974</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>148</v>
@@ -3561,19 +3561,19 @@
         <v>161270</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>133800</v>
+        <v>136207</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>185402</v>
+        <v>188507</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02394779157191306</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01986858901248557</v>
+        <v>0.0202260263713566</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02753117253680015</v>
+        <v>0.02799229599266936</v>
       </c>
     </row>
     <row r="44">
@@ -3590,19 +3590,19 @@
         <v>241699</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>212924</v>
+        <v>213091</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>271653</v>
+        <v>274766</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07347947826379322</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06473157344458633</v>
+        <v>0.0647822309065952</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08258578543827524</v>
+        <v>0.08353217923269492</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>110</v>
@@ -3611,19 +3611,19 @@
         <v>123593</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>101689</v>
+        <v>103194</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>145723</v>
+        <v>148319</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03587690583379999</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02951860551163978</v>
+        <v>0.02995561035321615</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04230095080091851</v>
+        <v>0.04305447770437085</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>340</v>
@@ -3632,19 +3632,19 @@
         <v>365292</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>330074</v>
+        <v>329663</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>408039</v>
+        <v>401058</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05424386366131972</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04901422613023017</v>
+        <v>0.04895317118157184</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0605916541809865</v>
+        <v>0.05955500634273792</v>
       </c>
     </row>
     <row r="45">
@@ -3978,19 +3978,19 @@
         <v>168562</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145525</v>
+        <v>147884</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189175</v>
+        <v>192484</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3065359642700689</v>
+        <v>0.306535964270069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2646421069865004</v>
+        <v>0.2689320312408024</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3440223201964608</v>
+        <v>0.3500391176135951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>304</v>
@@ -3999,19 +3999,19 @@
         <v>220025</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202387</v>
+        <v>202042</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>240216</v>
+        <v>240089</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4510205661594242</v>
+        <v>0.4510205661594241</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4148639521936955</v>
+        <v>0.4141566214537477</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4924075036698913</v>
+        <v>0.4921470675050821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>474</v>
@@ -4020,19 +4020,19 @@
         <v>388587</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>360568</v>
+        <v>360932</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>419157</v>
+        <v>419870</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3744583904820815</v>
+        <v>0.3744583904820814</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3474586643534233</v>
+        <v>0.3478094569690475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4039174810736149</v>
+        <v>0.4046041656109654</v>
       </c>
     </row>
     <row r="5">
@@ -4049,19 +4049,19 @@
         <v>291816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267683</v>
+        <v>269698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317457</v>
+        <v>316690</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5306783212088756</v>
+        <v>0.5306783212088757</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4867924391317945</v>
+        <v>0.4904560423877004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5773077945426905</v>
+        <v>0.5759122713755136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>322</v>
@@ -4070,19 +4070,19 @@
         <v>226499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207532</v>
+        <v>205019</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245283</v>
+        <v>243731</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4642911105981458</v>
+        <v>0.4642911105981457</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4254106629939596</v>
+        <v>0.4202590036878819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5027950420068766</v>
+        <v>0.4996141719866013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>611</v>
@@ -4091,19 +4091,19 @@
         <v>518315</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485612</v>
+        <v>486448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>550830</v>
+        <v>547647</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4994695947759945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4679557860469693</v>
+        <v>0.4687617651443375</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5308025629173759</v>
+        <v>0.5277356406262782</v>
       </c>
     </row>
     <row r="6">
@@ -4120,19 +4120,19 @@
         <v>85781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69844</v>
+        <v>69478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106195</v>
+        <v>104196</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1559961745543121</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.127014550338386</v>
+        <v>0.126348555712765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1931201348000071</v>
+        <v>0.1894852980078897</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -4141,19 +4141,19 @@
         <v>36384</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27281</v>
+        <v>26508</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48974</v>
+        <v>50909</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07458205866306246</v>
+        <v>0.07458205866306244</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05592203622519423</v>
+        <v>0.05433665034750403</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1003901999768232</v>
+        <v>0.1043565031069114</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>141</v>
@@ -4162,19 +4162,19 @@
         <v>122165</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>102068</v>
+        <v>102719</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>146662</v>
+        <v>144144</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1177232776024671</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09835663225796487</v>
+        <v>0.09898456532872059</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1413300777645695</v>
+        <v>0.1389035151978003</v>
       </c>
     </row>
     <row r="7">
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5988</v>
+        <v>6249</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.003481263054064259</v>
+        <v>0.00348126305406426</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01088974994002739</v>
+        <v>0.0113641954529088</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4212,19 +4212,19 @@
         <v>2306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6227</v>
+        <v>5481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004726332881083472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001306898510218326</v>
+        <v>0.001243244918690901</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01276432168540158</v>
+        <v>0.01123556387577891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -4233,19 +4233,19 @@
         <v>4220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1572</v>
+        <v>1693</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9794</v>
+        <v>9152</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.004066572231296011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001515067665225576</v>
+        <v>0.001631702775575123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009437665898723583</v>
+        <v>0.008819132177236746</v>
       </c>
     </row>
     <row r="8">
@@ -4265,16 +4265,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6237</v>
+        <v>7286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.003308276912678924</v>
+        <v>0.003308276912678925</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01134305707530865</v>
+        <v>0.01324945769826326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4283,19 +4283,19 @@
         <v>2625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>944</v>
+        <v>512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7073</v>
+        <v>7222</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.005379931698284299</v>
+        <v>0.005379931698284298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001936055529559313</v>
+        <v>0.001049929233718679</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01449877988212969</v>
+        <v>0.01480447412716034</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4304,19 +4304,19 @@
         <v>4444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1752</v>
+        <v>1821</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10679</v>
+        <v>9638</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.004282164908160958</v>
+        <v>0.004282164908160959</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001688251167121972</v>
+        <v>0.001754637147781071</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01029046306019314</v>
+        <v>0.009287286326046995</v>
       </c>
     </row>
     <row r="9">
@@ -4408,19 +4408,19 @@
         <v>131804</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112590</v>
+        <v>113333</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153615</v>
+        <v>153839</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.273147636722148</v>
+        <v>0.2731476367221479</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.23332953906093</v>
+        <v>0.2348698531987327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3183494797882036</v>
+        <v>0.3188131189906264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>224</v>
@@ -4429,19 +4429,19 @@
         <v>167826</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149884</v>
+        <v>149290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186544</v>
+        <v>187458</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3971109955556582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3546568232070135</v>
+        <v>0.353250688552851</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4414019032551109</v>
+        <v>0.4435632677248841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>353</v>
@@ -4450,19 +4450,19 @@
         <v>299630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>271044</v>
+        <v>272293</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>326996</v>
+        <v>328303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3310263361590167</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.299445009276003</v>
+        <v>0.3008245706104153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3612595562530552</v>
+        <v>0.362704329384698</v>
       </c>
     </row>
     <row r="11">
@@ -4479,19 +4479,19 @@
         <v>251549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>230044</v>
+        <v>226865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>275660</v>
+        <v>272477</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5213061106456676</v>
+        <v>0.5213061106456675</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4767390660275559</v>
+        <v>0.4701506864185441</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5712739725255972</v>
+        <v>0.5646760889008251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -4500,19 +4500,19 @@
         <v>209360</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192627</v>
+        <v>189559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>227077</v>
+        <v>228278</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4953892353543233</v>
+        <v>0.4953892353543232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4557937928556753</v>
+        <v>0.4485347062752258</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5373100936386929</v>
+        <v>0.5401512929875898</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>547</v>
@@ -4521,19 +4521,19 @@
         <v>460909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>427682</v>
+        <v>430669</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>491050</v>
+        <v>490051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5092054782535979</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4724959764309182</v>
+        <v>0.4757966344936349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5425042405965342</v>
+        <v>0.5414008025573267</v>
       </c>
     </row>
     <row r="12">
@@ -4550,19 +4550,19 @@
         <v>84938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67587</v>
+        <v>67785</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104206</v>
+        <v>101118</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1760243150516544</v>
+        <v>0.1760243150516543</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1400655094866502</v>
+        <v>0.1404756492988682</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2159541621250645</v>
+        <v>0.2095555084738632</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -4571,19 +4571,19 @@
         <v>42393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33537</v>
+        <v>32812</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54302</v>
+        <v>54057</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1003114995160181</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07935586045775767</v>
+        <v>0.07763877296936077</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1284901240064101</v>
+        <v>0.1279101537196757</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>149</v>
@@ -4592,19 +4592,19 @@
         <v>127332</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109838</v>
+        <v>108060</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150201</v>
+        <v>149797</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1406738749285236</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1213471457237442</v>
+        <v>0.1193827081103671</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1659397975103525</v>
+        <v>0.1654938566616722</v>
       </c>
     </row>
     <row r="13">
@@ -4621,19 +4621,19 @@
         <v>5206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1957</v>
+        <v>1975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11710</v>
+        <v>12458</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01078859212066491</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004054791313529006</v>
+        <v>0.004093826623415895</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02426761073152289</v>
+        <v>0.0258179345223588</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4129</v>
+        <v>4214</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002791821143274171</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009770987667903911</v>
+        <v>0.009970138262267818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -4663,19 +4663,19 @@
         <v>6386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2890</v>
+        <v>2655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13462</v>
+        <v>13299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007054886385186272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003192896092363461</v>
+        <v>0.002932690685487122</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01487244907824499</v>
+        <v>0.01469197686905902</v>
       </c>
     </row>
     <row r="14">
@@ -4692,19 +4692,19 @@
         <v>9040</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4532</v>
+        <v>4696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17604</v>
+        <v>18060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0187333454598653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009391557094487451</v>
+        <v>0.009732099761784857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03648293316154227</v>
+        <v>0.03742826007472926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4713,19 +4713,19 @@
         <v>1858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5408</v>
+        <v>5119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004396448430726188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001394469969223213</v>
+        <v>0.001397805181956138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01279716740455146</v>
+        <v>0.01211184664699146</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -4734,19 +4734,19 @@
         <v>10898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5347</v>
+        <v>5803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18905</v>
+        <v>19459</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01203942427367553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005907644496762204</v>
+        <v>0.00641072442130163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02088600794787071</v>
+        <v>0.02149852744564821</v>
       </c>
     </row>
     <row r="15">
@@ -4838,19 +4838,19 @@
         <v>96792</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79594</v>
+        <v>79169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117839</v>
+        <v>118532</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2067048811881769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.169977808572616</v>
+        <v>0.1690694869789027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2516510765043759</v>
+        <v>0.2531321674668881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -4859,19 +4859,19 @@
         <v>57958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47377</v>
+        <v>46940</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69730</v>
+        <v>69015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3113230397067288</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2544856556228704</v>
+        <v>0.2521375820866028</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3745558035567807</v>
+        <v>0.3707135067106107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>174</v>
@@ -4880,19 +4880,19 @@
         <v>154750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134020</v>
+        <v>133459</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177997</v>
+        <v>178049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2364659111469939</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2047887394557125</v>
+        <v>0.2039314805314038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2719871425785928</v>
+        <v>0.2720679802465028</v>
       </c>
     </row>
     <row r="17">
@@ -4909,19 +4909,19 @@
         <v>241488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>216722</v>
+        <v>218381</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>263624</v>
+        <v>264800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5157123328005968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4628222377265996</v>
+        <v>0.4663640274956593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5629847732654298</v>
+        <v>0.5654951516020816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>158</v>
@@ -4930,19 +4930,19 @@
         <v>102557</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91053</v>
+        <v>90534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113812</v>
+        <v>113904</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5508824854755727</v>
+        <v>0.5508824854755729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4890897164213553</v>
+        <v>0.486300638327267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6113423672959003</v>
+        <v>0.611833355373954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>406</v>
@@ -4951,19 +4951,19 @@
         <v>344045</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319049</v>
+        <v>319910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>368513</v>
+        <v>368892</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5257172877934773</v>
+        <v>0.5257172877934772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4875221018219009</v>
+        <v>0.4888380749260755</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5631055966292999</v>
+        <v>0.5636845661845634</v>
       </c>
     </row>
     <row r="18">
@@ -4980,19 +4980,19 @@
         <v>104354</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88010</v>
+        <v>85527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124398</v>
+        <v>124490</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2228530486791966</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1879508089345168</v>
+        <v>0.1826476451799607</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.265659628767016</v>
+        <v>0.2658544105170523</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -5001,19 +5001,19 @@
         <v>22323</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16852</v>
+        <v>16333</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30109</v>
+        <v>29661</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1199052358811969</v>
+        <v>0.119905235881197</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09051895892594453</v>
+        <v>0.08773498087826742</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1617326535713871</v>
+        <v>0.1593244677009851</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>153</v>
@@ -5022,19 +5022,19 @@
         <v>126676</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>108797</v>
+        <v>110767</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>145103</v>
+        <v>148106</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1935671867957394</v>
+        <v>0.1935671867957393</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1662466997670576</v>
+        <v>0.1692567398122654</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2217239269148863</v>
+        <v>0.2263128364973458</v>
       </c>
     </row>
     <row r="19">
@@ -5051,19 +5051,19 @@
         <v>6567</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3106</v>
+        <v>3097</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12403</v>
+        <v>12056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01402400337611811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006632987821063177</v>
+        <v>0.006614723546543949</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02648826019184584</v>
+        <v>0.02574697857272928</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5072,19 +5072,19 @@
         <v>1447</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4538</v>
+        <v>5427</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.007770648975917189</v>
+        <v>0.00777064897591719</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001503126503035003</v>
+        <v>0.001518518372472183</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02437666322962385</v>
+        <v>0.02915336907512248</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -5093,19 +5093,19 @@
         <v>8014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4147</v>
+        <v>4411</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14294</v>
+        <v>14381</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01224509357419804</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00633646429131938</v>
+        <v>0.006740880226641912</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02184229938850021</v>
+        <v>0.02197486785813684</v>
       </c>
     </row>
     <row r="20">
@@ -5122,19 +5122,19 @@
         <v>19061</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11304</v>
+        <v>12373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29057</v>
+        <v>29401</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04070573395591155</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0241403314545417</v>
+        <v>0.02642364483224894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06205212385133019</v>
+        <v>0.06278650813634593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -5143,19 +5143,19 @@
         <v>1884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5039</v>
+        <v>5126</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01011858996058414</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002911244356157934</v>
+        <v>0.002947216754707511</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0270667422280135</v>
+        <v>0.02753361545242237</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -5164,19 +5164,19 @@
         <v>20945</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13254</v>
+        <v>13431</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30212</v>
+        <v>30321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0320045206895916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02025247986445778</v>
+        <v>0.02052321841618272</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04616590230568256</v>
+        <v>0.04633179991867285</v>
       </c>
     </row>
     <row r="21">
@@ -5268,19 +5268,19 @@
         <v>220461</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>189875</v>
+        <v>190196</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>251438</v>
+        <v>251281</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1963323575161399</v>
+        <v>0.1963323575161398</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1690936658445802</v>
+        <v>0.1693791721853306</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2239189835618659</v>
+        <v>0.2237788464119896</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>363</v>
@@ -5289,19 +5289,19 @@
         <v>272447</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>249665</v>
+        <v>247950</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>298018</v>
+        <v>295051</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3166906695125902</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2902097476682163</v>
+        <v>0.288215387349143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3464142989814994</v>
+        <v>0.3429662562942541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>552</v>
@@ -5310,19 +5310,19 @@
         <v>492908</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>457353</v>
+        <v>454169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>536755</v>
+        <v>535553</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2485428759767866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2306150652199233</v>
+        <v>0.2290091984718819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2706522869435577</v>
+        <v>0.2700461846390254</v>
       </c>
     </row>
     <row r="23">
@@ -5339,19 +5339,19 @@
         <v>566372</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>529525</v>
+        <v>532967</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>605301</v>
+        <v>605558</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.504384542661401</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4715703890554297</v>
+        <v>0.4746353525805543</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5390528022614951</v>
+        <v>0.5392812782575853</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>675</v>
@@ -5360,19 +5360,19 @@
         <v>467498</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>439886</v>
+        <v>444728</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>492386</v>
+        <v>494600</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5434171009779275</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5113214019470971</v>
+        <v>0.5169491634408672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5723466161176677</v>
+        <v>0.57492094470861</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1235</v>
@@ -5381,19 +5381,19 @@
         <v>1033870</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>990201</v>
+        <v>989635</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1079560</v>
+        <v>1079972</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5213165689813728</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4992973150368904</v>
+        <v>0.4990115827292839</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5443555105133001</v>
+        <v>0.5445628906788846</v>
       </c>
     </row>
     <row r="24">
@@ -5410,19 +5410,19 @@
         <v>270314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>240193</v>
+        <v>238960</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>299759</v>
+        <v>299778</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2407289398009651</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.213904375200915</v>
+        <v>0.2128063961170336</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2669512266188251</v>
+        <v>0.2669684656082901</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>160</v>
@@ -5431,19 +5431,19 @@
         <v>101217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>87235</v>
+        <v>85115</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>120650</v>
+        <v>116330</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1176538925935474</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1014014637173831</v>
+        <v>0.09893678292709762</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1402428878500227</v>
+        <v>0.1352208315393562</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>443</v>
@@ -5452,19 +5452,19 @@
         <v>371531</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>337055</v>
+        <v>337668</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>405806</v>
+        <v>405476</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1873399223107783</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.169956142077701</v>
+        <v>0.1702650841400206</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2046230327552833</v>
+        <v>0.2044562182478314</v>
       </c>
     </row>
     <row r="25">
@@ -5481,19 +5481,19 @@
         <v>22502</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14089</v>
+        <v>14976</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33710</v>
+        <v>32706</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02003923553038657</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01254730898973455</v>
+        <v>0.01333676123945442</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03002095490495106</v>
+        <v>0.02912675475324646</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -5502,19 +5502,19 @@
         <v>7259</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3795</v>
+        <v>3855</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14010</v>
+        <v>13361</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008437511748542648</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004411653278886773</v>
+        <v>0.00448098099830132</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01628505021177988</v>
+        <v>0.0155308319401151</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -5523,19 +5523,19 @@
         <v>29761</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20982</v>
+        <v>20847</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41776</v>
+        <v>41280</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01500649617371338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01057976117363339</v>
+        <v>0.01051167820258117</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02106521637445533</v>
+        <v>0.02081475293388291</v>
       </c>
     </row>
     <row r="26">
@@ -5552,19 +5552,19 @@
         <v>43248</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31550</v>
+        <v>31663</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58127</v>
+        <v>57340</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03851492449110742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02809662615386965</v>
+        <v>0.02819724344243254</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05176535171881517</v>
+        <v>0.05106451542078241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -5573,19 +5573,19 @@
         <v>11873</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7368</v>
+        <v>7234</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18669</v>
+        <v>18439</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01380082516739234</v>
+        <v>0.01380082516739233</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008564863313808291</v>
+        <v>0.008408838193957225</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0217002376429242</v>
+        <v>0.02143332588457954</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -5594,19 +5594,19 @@
         <v>55121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>41831</v>
+        <v>41779</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70061</v>
+        <v>71012</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02779413655734894</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02109273487371031</v>
+        <v>0.02106662661686855</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03532726940305466</v>
+        <v>0.03580677026489568</v>
       </c>
     </row>
     <row r="27">
@@ -5698,19 +5698,19 @@
         <v>94632</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>76211</v>
+        <v>76008</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>117961</v>
+        <v>116800</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1677793447736593</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1351193970124575</v>
+        <v>0.1347597218084371</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2091410639129987</v>
+        <v>0.2070827182329263</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>281</v>
@@ -5719,19 +5719,19 @@
         <v>197933</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>177412</v>
+        <v>177687</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220988</v>
+        <v>218626</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2396362450130943</v>
+        <v>0.2396362450130944</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2147915701962093</v>
+        <v>0.2151241836697886</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2675488818993231</v>
+        <v>0.2646892685248544</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>357</v>
@@ -5740,19 +5740,19 @@
         <v>292564</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>264085</v>
+        <v>263551</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>323008</v>
+        <v>321909</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2104786126310888</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1899895825138678</v>
+        <v>0.1896057180696604</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2323805941746729</v>
+        <v>0.2315897872623457</v>
       </c>
     </row>
     <row r="29">
@@ -5769,19 +5769,19 @@
         <v>272363</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>243905</v>
+        <v>246163</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>299294</v>
+        <v>296891</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4828921776166939</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.432436643318154</v>
+        <v>0.4364402294441275</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.530641159694722</v>
+        <v>0.5263799369399994</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>637</v>
@@ -5790,19 +5790,19 @@
         <v>427568</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>403012</v>
+        <v>405321</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>451055</v>
+        <v>449430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.517653839615833</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4879243947348373</v>
+        <v>0.4907198702974482</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5460893390288913</v>
+        <v>0.544121363361345</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>880</v>
@@ -5811,19 +5811,19 @@
         <v>699930</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>665061</v>
+        <v>665219</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>733947</v>
+        <v>735023</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5035484752293772</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4784622916057586</v>
+        <v>0.4785758456842548</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.528021186328139</v>
+        <v>0.5287953943335064</v>
       </c>
     </row>
     <row r="30">
@@ -5840,19 +5840,19 @@
         <v>148446</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>126564</v>
+        <v>128476</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>170352</v>
+        <v>170507</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2631915147017378</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2243950939841922</v>
+        <v>0.2277843001223974</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3020301516149947</v>
+        <v>0.3023043179627077</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>277</v>
@@ -5861,19 +5861,19 @@
         <v>155126</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>138287</v>
+        <v>136551</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>173443</v>
+        <v>172034</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.187810441349898</v>
+        <v>0.1878104413498979</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1674230572338911</v>
+        <v>0.1653212234276246</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2099863098136163</v>
+        <v>0.2082808183805698</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>440</v>
@@ -5882,19 +5882,19 @@
         <v>303572</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>277093</v>
+        <v>276625</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>333874</v>
+        <v>330684</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2183980901077791</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1993477853900059</v>
+        <v>0.1990113224304483</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2401981020417034</v>
+        <v>0.2379031140309623</v>
       </c>
     </row>
     <row r="31">
@@ -5911,19 +5911,19 @@
         <v>14791</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9066</v>
+        <v>8648</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22452</v>
+        <v>22723</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02622362657033535</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01607327061488146</v>
+        <v>0.01533311448975064</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03980691970772109</v>
+        <v>0.04028754816000542</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -5932,19 +5932,19 @@
         <v>16770</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11162</v>
+        <v>11734</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>24053</v>
+        <v>24843</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02030369915026098</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01351327758660787</v>
+        <v>0.01420605114803502</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02912034381843753</v>
+        <v>0.03007693048437626</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -5953,19 +5953,19 @@
         <v>31561</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>23177</v>
+        <v>23760</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42422</v>
+        <v>42318</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02270584935250355</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0166737966256836</v>
+        <v>0.01709329012883699</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03051950441551266</v>
+        <v>0.03044458663575782</v>
       </c>
     </row>
     <row r="32">
@@ -5982,19 +5982,19 @@
         <v>33793</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>23778</v>
+        <v>24687</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>45175</v>
+        <v>45921</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0599133363375736</v>
+        <v>0.05991333633757361</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04215801232760232</v>
+        <v>0.04376916227442824</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08009416464599639</v>
+        <v>0.08141603451773866</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -6003,19 +6003,19 @@
         <v>28575</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>21728</v>
+        <v>22016</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37876</v>
+        <v>38131</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03459577487091368</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02630592068540928</v>
+        <v>0.02665412274548141</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04585673524497808</v>
+        <v>0.04616506148500061</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>100</v>
@@ -6024,19 +6024,19 @@
         <v>62368</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>49337</v>
+        <v>50752</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76499</v>
+        <v>77039</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.04486897267925131</v>
+        <v>0.0448689726792513</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03549459630249324</v>
+        <v>0.03651257222797532</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05503529690894274</v>
+        <v>0.05542381759507707</v>
       </c>
     </row>
     <row r="33">
@@ -6128,19 +6128,19 @@
         <v>80349</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>58124</v>
+        <v>57901</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>104238</v>
+        <v>105717</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3386986175544485</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2450128048423903</v>
+        <v>0.2440731854196567</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.439400678953048</v>
+        <v>0.445632739164185</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>272</v>
@@ -6149,19 +6149,19 @@
         <v>226744</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>199269</v>
+        <v>198426</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>254042</v>
+        <v>252989</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2728803880919005</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2398153408050407</v>
+        <v>0.2388007969242156</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3057329836318583</v>
+        <v>0.3044662135951662</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>306</v>
@@ -6170,19 +6170,19 @@
         <v>307092</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>273623</v>
+        <v>273799</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>343185</v>
+        <v>342236</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2874980284341857</v>
+        <v>0.2874980284341858</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2561639525581987</v>
+        <v>0.2563289546847085</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3212877789825457</v>
+        <v>0.320399397314661</v>
       </c>
     </row>
     <row r="35">
@@ -6199,19 +6199,19 @@
         <v>137763</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>113847</v>
+        <v>112939</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>161595</v>
+        <v>160325</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5807203334774657</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4799061372860687</v>
+        <v>0.476079792105977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6811817793158352</v>
+        <v>0.6758267845907813</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>585</v>
@@ -6220,19 +6220,19 @@
         <v>428596</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>399554</v>
+        <v>401210</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>455272</v>
+        <v>456794</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.5158046029417854</v>
+        <v>0.5158046029417855</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.480853418633677</v>
+        <v>0.4828464880374566</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5479086432679072</v>
+        <v>0.5497400869955443</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>649</v>
@@ -6241,19 +6241,19 @@
         <v>566359</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>530975</v>
+        <v>531772</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>602715</v>
+        <v>602201</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5302218063408413</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4970954864286144</v>
+        <v>0.4978412309962235</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5642582984878306</v>
+        <v>0.563776677449497</v>
       </c>
     </row>
     <row r="36">
@@ -6270,19 +6270,19 @@
         <v>15016</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7196</v>
+        <v>7456</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>30370</v>
+        <v>29767</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06329896404007505</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03033536109913024</v>
+        <v>0.03143131001410819</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1280220420157139</v>
+        <v>0.1254768286525365</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>207</v>
@@ -6291,19 +6291,19 @@
         <v>131560</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>114616</v>
+        <v>113765</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>151786</v>
+        <v>149133</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1583293087233847</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.13793807802976</v>
+        <v>0.1369134905060157</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1826704769360827</v>
+        <v>0.1794777458087747</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>217</v>
@@ -6312,19 +6312,19 @@
         <v>146576</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>126907</v>
+        <v>126368</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>170994</v>
+        <v>171769</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.137223918749708</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1188092997081703</v>
+        <v>0.1183047225002109</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.160083323522313</v>
+        <v>0.1608089334144374</v>
       </c>
     </row>
     <row r="37">
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4792</v>
+        <v>4543</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003900820400621126</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02019864754274181</v>
+        <v>0.01915021452651884</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>21</v>
@@ -6362,19 +6362,19 @@
         <v>13974</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8302</v>
+        <v>8745</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>20643</v>
+        <v>21576</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01681732702725914</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009991192383870428</v>
+        <v>0.01052411340279663</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02484298567043391</v>
+        <v>0.02596664468886736</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>22</v>
@@ -6383,19 +6383,19 @@
         <v>14899</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>9521</v>
+        <v>9410</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>21811</v>
+        <v>22631</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0139486863803032</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.008913489195192992</v>
+        <v>0.008809258779539886</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02041950284678835</v>
+        <v>0.02118691329796106</v>
       </c>
     </row>
     <row r="38">
@@ -6412,19 +6412,19 @@
         <v>3174</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9155</v>
+        <v>10221</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01338126452738959</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003107971855812134</v>
+        <v>0.003035951026335051</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03859359872990396</v>
+        <v>0.04308661566452827</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>50</v>
@@ -6433,19 +6433,19 @@
         <v>30053</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>21898</v>
+        <v>22156</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>39451</v>
+        <v>39141</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03616837321567007</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02635418442552589</v>
+        <v>0.02666433727864174</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04747862238242588</v>
+        <v>0.04710551969848872</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>53</v>
@@ -6454,19 +6454,19 @@
         <v>33228</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>24398</v>
+        <v>24263</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>43848</v>
+        <v>44779</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03110756009496186</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02284137357674559</v>
+        <v>0.02271441390331413</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.04105037157118981</v>
+        <v>0.04192178622128478</v>
       </c>
     </row>
     <row r="39">
@@ -6558,19 +6558,19 @@
         <v>792599</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>742012</v>
+        <v>736391</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>851985</v>
+        <v>848665</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2314265263379651</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2166559167714718</v>
+        <v>0.2150147752714273</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2487664834763985</v>
+        <v>0.2477971368234903</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1527</v>
@@ -6579,19 +6579,19 @@
         <v>1142933</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1092590</v>
+        <v>1095915</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1198290</v>
+        <v>1200662</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3162675896704273</v>
+        <v>0.3162675896704272</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3023367562444669</v>
+        <v>0.3032569969430151</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3315857152507725</v>
+        <v>0.3322421641614156</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2216</v>
@@ -6600,19 +6600,19 @@
         <v>1935532</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1862746</v>
+        <v>1859665</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2012196</v>
+        <v>2009557</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.2749859880401577</v>
+        <v>0.2749859880401576</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2646450630382903</v>
+        <v>0.2642074011526688</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2858778076655264</v>
+        <v>0.2855029257614638</v>
       </c>
     </row>
     <row r="41">
@@ -6629,19 +6629,19 @@
         <v>1761351</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1699178</v>
+        <v>1701556</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1828537</v>
+        <v>1826567</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.5142872355906374</v>
+        <v>0.5142872355906373</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4961336854491021</v>
+        <v>0.4968280409904605</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5339043945431097</v>
+        <v>0.533329401915365</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2674</v>
@@ -6650,19 +6650,19 @@
         <v>1862078</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1805454</v>
+        <v>1810806</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1916230</v>
+        <v>1916987</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5152662406805132</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4995975330061548</v>
+        <v>0.5010785846382901</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5302509265502007</v>
+        <v>0.530460552427607</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4328</v>
@@ -6671,19 +6671,19 @@
         <v>3623429</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3535231</v>
+        <v>3537756</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3703492</v>
+        <v>3707367</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.5147898805722495</v>
+        <v>0.5147898805722494</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5022594134508055</v>
+        <v>0.5026180831798471</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5261646927919073</v>
+        <v>0.5267151771808255</v>
       </c>
     </row>
     <row r="42">
@@ -6700,19 +6700,19 @@
         <v>708849</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>658436</v>
+        <v>662202</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>761644</v>
+        <v>758852</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2069730086127594</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1922530020513077</v>
+        <v>0.1933527645281985</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2223882765801658</v>
+        <v>0.2215731750361674</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>798</v>
@@ -6721,19 +6721,19 @@
         <v>489003</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>454137</v>
+        <v>454086</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>525837</v>
+        <v>522568</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1353148683600734</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1256667592192537</v>
+        <v>0.1256528664065017</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1455072941288402</v>
+        <v>0.1446028224741867</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1543</v>
@@ -6742,19 +6742,19 @@
         <v>1197852</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1138806</v>
+        <v>1137125</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1262097</v>
+        <v>1262824</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.170181979677212</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1617931359885317</v>
+        <v>0.1615542390236128</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1793094171401872</v>
+        <v>0.1794126680196937</v>
       </c>
     </row>
     <row r="43">
@@ -6771,19 +6771,19 @@
         <v>51905</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>39680</v>
+        <v>38820</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>68940</v>
+        <v>66157</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01515553139999865</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01158594266066958</v>
+        <v>0.0113347568350111</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02012955815035575</v>
+        <v>0.01931684137910998</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>69</v>
@@ -6792,19 +6792,19 @@
         <v>42935</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>34234</v>
+        <v>34173</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>55870</v>
+        <v>56148</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01188084928752448</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.009473128652399233</v>
+        <v>0.009456267269829068</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01546018867175663</v>
+        <v>0.01553694304678679</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>131</v>
@@ -6813,19 +6813,19 @@
         <v>94840</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>81016</v>
+        <v>79873</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>116144</v>
+        <v>114218</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01347423010010564</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01151017244470175</v>
+        <v>0.01134778918882435</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01650083987731599</v>
+        <v>0.01622726752171572</v>
       </c>
     </row>
     <row r="44">
@@ -6842,19 +6842,19 @@
         <v>110135</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>90755</v>
+        <v>92516</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>133563</v>
+        <v>133987</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03215769805863949</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0264990335168161</v>
+        <v>0.02701321513604841</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03899841969834184</v>
+        <v>0.03912215923883015</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>137</v>
@@ -6863,19 +6863,19 @@
         <v>76868</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>65281</v>
+        <v>64417</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>92076</v>
+        <v>90818</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.02127045200146169</v>
+        <v>0.02127045200146168</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0180642280389719</v>
+        <v>0.01782526970706309</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02547888042241268</v>
+        <v>0.02513087722488712</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>266</v>
@@ -6884,19 +6884,19 @@
         <v>187002</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>163621</v>
+        <v>166468</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>210756</v>
+        <v>212969</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02656792161027515</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02324601473898378</v>
+        <v>0.02365050395594116</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02994259286268326</v>
+        <v>0.03025699520124765</v>
       </c>
     </row>
     <row r="45">
